--- a/biology/Botanique/Cyamopsis_tetragonoloba/Cyamopsis_tetragonoloba.xlsx
+++ b/biology/Botanique/Cyamopsis_tetragonoloba/Cyamopsis_tetragonoloba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Guar (Cyamopsis tetragonoloba (L.) Taub.) est une plante annuelle de la famille des Fabaceae, de 1 à 2 m de haut à feuilles trifoliées velues et fleurs roses. Cette espèce est résistante à la sécheresse, est cultivée pour ses graines, comme fourrage ou comme légume.
-La plante est également appelée « guar » ou « haricot de guar ». Elle n'est connue qu'à l'état cultivé et aurait été domestiqué dans la région du Pakistan et de l'Inde occidentale[1],[2] à partir d'une espèce africaine (Cyamopsis senegalensis)[1]. On la cultive également dans des zones semi-arides du Brésil, en Afrique-du-Sud et en Australie, ainsi que dans le sud des États-Unis (Texas, Arizona)[3].	
+La plante est également appelée « guar » ou « haricot de guar ». Elle n'est connue qu'à l'état cultivé et aurait été domestiqué dans la région du Pakistan et de l'Inde occidentale, à partir d'une espèce africaine (Cyamopsis senegalensis). On la cultive également dans des zones semi-arides du Brésil, en Afrique-du-Sud et en Australie, ainsi que dans le sud des États-Unis (Texas, Arizona).	
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Gomme de guar</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les graines sont utilisées pour en extraire une gomme (galactomannane) qui, dans la plante, sert de réserve d'aliments et d'eau.
 La gomme de guar extraite de la semence est un polysaccharide hydrosoluble à froid. Cette capacité d'hydrater sans chauffage le rend très utile dans beaucoup d'applications industrielles.
